--- a/DayReportsDataBase/ExportFiles/ReturnProtocol.xlsx
+++ b/DayReportsDataBase/ExportFiles/ReturnProtocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\source\repos\DelitaTrade\DayReportsDataBase\ExportFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48216E8E-A839-4EB5-8888-B3B4CB561930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D240AC57-A9A9-4371-AC3C-4C4328DDA167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{68D2A0A9-2297-4A68-B6D0-4C9D918D7251}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA1E1C2-31D8-3F1D-EBD7-E12AFB0A54E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305B0833-2938-AA9F-EDA8-068DFFA68E5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1264,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4115E231-82C0-2A7A-992A-76717BCD783D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E235C533-94AB-4684-6C0E-D6121807325A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1314,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F77F12-8E8E-9663-CAD8-4FFD717866C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8CB64F-AD73-6EEF-20BE-CD5F03165207}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1364,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EB2A40-2DF0-474A-955C-2F1208A0C0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7251F8-CB2F-1148-D34E-69DC1B4D1617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1414,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9030BCF6-8F3E-BDAF-B05A-447C9BEEBD8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F741190-7938-6B42-B75E-4918B39E5FBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1464,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FD3AE6-85F5-D57B-73E0-B8A3A44495F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD603B1D-E0F3-A747-5411-9DD46933247A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/DayReportsDataBase/ExportFiles/ReturnProtocol.xlsx
+++ b/DayReportsDataBase/ExportFiles/ReturnProtocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\source\repos\DelitaTrade\DayReportsDataBase\ExportFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D240AC57-A9A9-4371-AC3C-4C4328DDA167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549512D2-7CFC-4E68-8716-2158654A1BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{68D2A0A9-2297-4A68-B6D0-4C9D918D7251}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
   <si>
     <t>ДПП</t>
   </si>
@@ -57,13 +57,13 @@
     <t xml:space="preserve">Обект: </t>
   </si>
   <si>
-    <t>Дистрибутор Триада</t>
+    <t>Болеро - Созопол 2</t>
   </si>
   <si>
     <t>Адрес:</t>
   </si>
   <si>
-    <t xml:space="preserve">Добрич   </t>
+    <t xml:space="preserve">Созопол Републиканска 81 </t>
   </si>
   <si>
     <t>Върнал стоката:                         (шофьор)</t>
@@ -78,7 +78,7 @@
     <t>Одобрил протокола: (търговски представител)</t>
   </si>
   <si>
-    <t>Елена Дякова</t>
+    <t>Call center</t>
   </si>
   <si>
     <t>НАЧИН НА ПЛАЩАНЕ - КЛИЕНТ:</t>
@@ -163,13 +163,34 @@
     <t>ДРУГО - ПОДРОБНО ОПИСАНИЕ:</t>
   </si>
   <si>
-    <t>(060250)Сирене - Бурата Valcolatte, кут. 125 гр</t>
+    <t>(140101)Паста прясна / Тортелони с прошуто крудо, 250 гр</t>
   </si>
   <si>
     <t>6 бр.</t>
   </si>
   <si>
-    <t>L:OS5133</t>
+    <t>L:35094</t>
+  </si>
+  <si>
+    <t>Клиента не хареса продукта</t>
+  </si>
+  <si>
+    <t>(140102)Паста прясна / Тортелони с рикота и спанак, 250 гр</t>
+  </si>
+  <si>
+    <t>3 бр.</t>
+  </si>
+  <si>
+    <t>L:35093</t>
+  </si>
+  <si>
+    <t>(140103)Паста прясна / Тортелони със сирена, 250 гр</t>
+  </si>
+  <si>
+    <t>(060404)Сирене - Грана Падано - ЛЮСПИ - Агриформ, 100 гр</t>
+  </si>
+  <si>
+    <t>L:G2L25172</t>
   </si>
   <si>
     <t>Приел СКЛАД:</t>
@@ -885,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1085,7 +1106,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1105,7 +1128,29 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1214,7 +1259,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305B0833-2938-AA9F-EDA8-068DFFA68E5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0D2799-2A88-4A46-A5EB-CAF80316CEED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,156 +1295,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E235C533-94AB-4684-6C0E-D6121807325A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="6242050"/>
-          <a:ext cx="10464800" cy="1384300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8CB64F-AD73-6EEF-20BE-CD5F03165207}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="7753350"/>
-          <a:ext cx="10464800" cy="1384300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7251F8-CB2F-1148-D34E-69DC1B4D1617}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="9264650"/>
-          <a:ext cx="10464800" cy="1384300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
@@ -1411,10 +1306,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F741190-7938-6B42-B75E-4918B39E5FBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7E47DC-F3EA-7825-6AAA-2B195D2DBC76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,10 +1356,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD603B1D-E0F3-A747-5411-9DD46933247A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EC3D3D-07C4-2581-C9F1-85B46E9C8780}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <v>45814</v>
+        <v>45819</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2090,7 +1985,7 @@
       </c>
       <c r="H14" s="75"/>
       <c r="I14" s="77">
-        <v>45818</v>
+        <v>45931</v>
       </c>
       <c r="J14" s="78"/>
       <c r="K14" s="29"/>
@@ -2127,7 +2022,9 @@
       <c r="D16" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="66" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="64" t="s">
         <v>30</v>
       </c>
@@ -2135,9 +2032,7 @@
       <c r="H16" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="66" t="s">
-        <v>19</v>
-      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="64" t="s">
         <v>32</v>
       </c>
@@ -2177,13 +2072,17 @@
     <row r="18" spans="1:14" ht="24.5" customHeight="1" thickBot="1">
       <c r="A18" s="54"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="79"/>
+      <c r="C18" s="79" t="s">
+        <v>19</v>
+      </c>
       <c r="D18" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
+      <c r="G18" s="82" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="82"/>
       <c r="I18" s="82"/>
       <c r="J18" s="82"/>
@@ -2212,21 +2111,29 @@
       <c r="A20" s="85">
         <v>2</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="32"/>
+      <c r="B20" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="92"/>
+      <c r="I20" s="94">
+        <v>45930</v>
+      </c>
+      <c r="J20" s="95"/>
       <c r="K20" s="5"/>
       <c r="L20" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="79"/>
-      <c r="N20" s="87" t="s">
+      <c r="M20" s="87"/>
+      <c r="N20" s="88" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2255,7 +2162,9 @@
       <c r="D22" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="66" t="s">
+        <v>19</v>
+      </c>
       <c r="F22" s="64" t="s">
         <v>30</v>
       </c>
@@ -2303,20 +2212,24 @@
     <row r="24" spans="1:14" ht="24.5" customHeight="1" thickBot="1">
       <c r="A24" s="54"/>
       <c r="B24" s="56"/>
-      <c r="C24" s="79"/>
+      <c r="C24" s="79" t="s">
+        <v>19</v>
+      </c>
       <c r="D24" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="15"/>
+      <c r="G24" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="83"/>
     </row>
     <row r="25" spans="1:14" ht="7.5" customHeight="1" thickBot="1">
       <c r="A25" s="84"/>
@@ -2338,21 +2251,29 @@
       <c r="A26" s="85">
         <v>3</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="32"/>
+      <c r="B26" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="92"/>
+      <c r="I26" s="94">
+        <v>45930</v>
+      </c>
+      <c r="J26" s="95"/>
       <c r="K26" s="5"/>
       <c r="L26" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="79"/>
-      <c r="N26" s="87" t="s">
+      <c r="M26" s="87"/>
+      <c r="N26" s="88" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2381,7 +2302,9 @@
       <c r="D28" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="66" t="s">
+        <v>19</v>
+      </c>
       <c r="F28" s="64" t="s">
         <v>30</v>
       </c>
@@ -2429,20 +2352,24 @@
     <row r="30" spans="1:14" ht="24.5" customHeight="1" thickBot="1">
       <c r="A30" s="54"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="79"/>
+      <c r="C30" s="79" t="s">
+        <v>19</v>
+      </c>
       <c r="D30" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="81"/>
       <c r="F30" s="81"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="15"/>
+      <c r="G30" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="83"/>
     </row>
     <row r="31" spans="1:14" ht="7.5" customHeight="1" thickBot="1">
       <c r="A31" s="84"/>
@@ -2464,21 +2391,29 @@
       <c r="A32" s="85">
         <v>4</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="32"/>
+      <c r="B32" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="92"/>
+      <c r="I32" s="94">
+        <v>45850</v>
+      </c>
+      <c r="J32" s="95"/>
       <c r="K32" s="5"/>
       <c r="L32" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="79"/>
-      <c r="N32" s="87" t="s">
+      <c r="M32" s="87"/>
+      <c r="N32" s="88" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2515,7 +2450,9 @@
       <c r="H34" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="66" t="s">
+        <v>19</v>
+      </c>
       <c r="J34" s="64" t="s">
         <v>32</v>
       </c>
@@ -2555,20 +2492,20 @@
     <row r="36" spans="1:14" ht="24.5" customHeight="1" thickBot="1">
       <c r="A36" s="54"/>
       <c r="B36" s="56"/>
-      <c r="C36" s="79"/>
+      <c r="C36" s="87"/>
       <c r="D36" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="81"/>
       <c r="F36" s="81"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="15"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="83"/>
     </row>
     <row r="37" spans="1:14" ht="7.5" customHeight="1" thickBot="1">
       <c r="A37" s="84"/>
@@ -2594,17 +2531,17 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
       <c r="H38" s="30"/>
-      <c r="I38" s="88"/>
+      <c r="I38" s="96"/>
       <c r="J38" s="32"/>
       <c r="K38" s="5"/>
       <c r="L38" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="79"/>
-      <c r="N38" s="87" t="s">
+      <c r="M38" s="87"/>
+      <c r="N38" s="88" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2698,130 +2635,130 @@
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1"/>
     <row r="44" spans="1:14" ht="25.5" customHeight="1">
-      <c r="C44" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
+      <c r="C44" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
       <c r="J44" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
+        <v>51</v>
+      </c>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1"/>
     <row r="46" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A46" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
+      <c r="A46" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
       <c r="J46" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
+        <v>51</v>
+      </c>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1"/>
     <row r="48" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A48" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
+      <c r="A48" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
       <c r="J48" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90"/>
+        <v>51</v>
+      </c>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1"/>
     <row r="50" spans="1:14" ht="24.5" customHeight="1">
-      <c r="C50" s="91" t="s">
-        <v>47</v>
+      <c r="C50" s="99" t="s">
+        <v>54</v>
       </c>
       <c r="J50" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1">
-      <c r="C51" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
+      <c r="C51" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
     </row>
     <row r="52" spans="1:14" ht="15.5" customHeight="1">
-      <c r="C52" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="92"/>
+      <c r="C52" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
     </row>
     <row r="53" spans="1:14" ht="15.5" customHeight="1">
-      <c r="C53" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
+      <c r="C53" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:14" ht="13" customHeight="1"/>
     <row r="55" spans="1:14" ht="15.5" customHeight="1">
-      <c r="B55" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="93"/>
-      <c r="L55" s="93"/>
-      <c r="N55" s="94" t="s">
-        <v>52</v>
+      <c r="B55" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
+      <c r="N55" s="102" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="13" customHeight="1"/>
@@ -2880,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="K60" s="1">
-        <v>45814</v>
+        <v>45819</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -2904,31 +2841,31 @@
     </row>
     <row r="62" spans="1:14" ht="11" customHeight="1"/>
     <row r="63" spans="1:14" ht="40" customHeight="1">
-      <c r="A63" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="95"/>
+      <c r="A63" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="103"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="103"/>
+      <c r="K63" s="103"/>
+      <c r="L63" s="103"/>
+      <c r="M63" s="103"/>
+      <c r="N63" s="103"/>
     </row>
     <row r="64" spans="1:14" ht="14" customHeight="1" thickBot="1"/>
     <row r="65" spans="1:14" ht="40" customHeight="1">
-      <c r="A65" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
+      <c r="A65" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
       <c r="E65" s="12"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -2943,10 +2880,10 @@
     <row r="66" spans="1:14" ht="40" customHeight="1">
       <c r="A66" s="50"/>
       <c r="B66" s="29"/>
-      <c r="C66" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="99"/>
+      <c r="C66" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="107"/>
       <c r="E66" s="50"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
@@ -2959,13 +2896,13 @@
       <c r="N66" s="51"/>
     </row>
     <row r="67" spans="1:14" ht="40" customHeight="1">
-      <c r="A67" s="98"/>
+      <c r="A67" s="106"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="99"/>
-      <c r="E67" s="98"/>
+      <c r="C67" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="107"/>
+      <c r="E67" s="106"/>
       <c r="F67" s="28"/>
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
@@ -2974,15 +2911,15 @@
       <c r="K67" s="28"/>
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="101"/>
+      <c r="N67" s="109"/>
     </row>
     <row r="68" spans="1:14" ht="40" customHeight="1" thickBot="1">
       <c r="A68" s="14"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="103"/>
+      <c r="C68" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="111"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -2997,42 +2934,42 @@
     <row r="69" spans="1:14" ht="14" customHeight="1"/>
     <row r="70" spans="1:14" ht="40" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
-      <c r="F70" s="90"/>
-      <c r="H70" s="90"/>
-      <c r="J70" s="90"/>
-      <c r="L70" s="90"/>
-      <c r="M70" s="90"/>
-      <c r="N70" s="90"/>
+      <c r="F70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="J70" s="98"/>
+      <c r="L70" s="98"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="98"/>
     </row>
     <row r="71" spans="1:14" ht="18.5" customHeight="1">
-      <c r="F71" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="H71" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="J71" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="L71" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="M71" s="105"/>
-      <c r="N71" s="105"/>
+      <c r="F71" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="J71" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="L71" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
     </row>
     <row r="72" spans="1:14" ht="15.5" customHeight="1" thickBot="1"/>
     <row r="73" spans="1:14" ht="40" customHeight="1">
-      <c r="A73" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="97"/>
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
+      <c r="A73" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
       <c r="E73" s="84"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -3045,11 +2982,11 @@
       <c r="N73" s="18"/>
     </row>
     <row r="74" spans="1:14" ht="40" customHeight="1">
-      <c r="A74" s="106"/>
-      <c r="B74" s="107"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="107"/>
-      <c r="E74" s="112"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="120"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
@@ -3061,11 +2998,11 @@
       <c r="N74" s="51"/>
     </row>
     <row r="75" spans="1:14" ht="40" customHeight="1">
-      <c r="A75" s="106"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="111"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="119"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
@@ -3074,13 +3011,13 @@
       <c r="K75" s="28"/>
       <c r="L75" s="28"/>
       <c r="M75" s="28"/>
-      <c r="N75" s="101"/>
+      <c r="N75" s="109"/>
     </row>
     <row r="76" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A76" s="108"/>
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="110"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="118"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -3095,72 +3032,72 @@
     <row r="77" spans="1:14" ht="14" customHeight="1"/>
     <row r="78" spans="1:14" ht="40" customHeight="1">
       <c r="A78" s="24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
-      <c r="F78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="J78" s="90"/>
-      <c r="L78" s="90"/>
-      <c r="M78" s="90"/>
-      <c r="N78" s="90"/>
+      <c r="F78" s="98"/>
+      <c r="H78" s="98"/>
+      <c r="J78" s="98"/>
+      <c r="L78" s="98"/>
+      <c r="M78" s="98"/>
+      <c r="N78" s="98"/>
     </row>
     <row r="79" spans="1:14" ht="18.5" customHeight="1">
-      <c r="F79" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="H79" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="J79" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="L79" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="M79" s="105"/>
-      <c r="N79" s="105"/>
+      <c r="F79" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="J79" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="L79" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="M79" s="113"/>
+      <c r="N79" s="113"/>
     </row>
     <row r="80" spans="1:14" ht="40" customHeight="1">
-      <c r="A80" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="113"/>
-      <c r="C80" s="113"/>
-      <c r="D80" s="113"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
-      <c r="J80" s="90"/>
-      <c r="L80" s="90"/>
-      <c r="M80" s="90"/>
-      <c r="N80" s="90"/>
+      <c r="A80" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="121"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="121"/>
+      <c r="F80" s="98"/>
+      <c r="G80" s="98"/>
+      <c r="H80" s="98"/>
+      <c r="J80" s="98"/>
+      <c r="L80" s="98"/>
+      <c r="M80" s="98"/>
+      <c r="N80" s="98"/>
     </row>
     <row r="81" spans="1:14" ht="18.5" customHeight="1">
-      <c r="F81" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="105"/>
-      <c r="H81" s="105"/>
-      <c r="J81" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="L81" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="M81" s="105"/>
-      <c r="N81" s="105"/>
+      <c r="F81" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" s="113"/>
+      <c r="H81" s="113"/>
+      <c r="J81" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="M81" s="113"/>
+      <c r="N81" s="113"/>
     </row>
     <row r="82" spans="1:14" ht="14" customHeight="1" thickBot="1"/>
     <row r="83" spans="1:14" ht="40" customHeight="1">
-      <c r="A83" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
+      <c r="A83" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
       <c r="E83" s="84"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -3173,11 +3110,11 @@
       <c r="N83" s="18"/>
     </row>
     <row r="84" spans="1:14" ht="40" customHeight="1">
-      <c r="A84" s="106"/>
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="107"/>
-      <c r="E84" s="112"/>
+      <c r="A84" s="114"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="120"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
@@ -3189,11 +3126,11 @@
       <c r="N84" s="51"/>
     </row>
     <row r="85" spans="1:14" ht="40" customHeight="1">
-      <c r="A85" s="106"/>
-      <c r="B85" s="107"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="107"/>
-      <c r="E85" s="111"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="115"/>
+      <c r="C85" s="115"/>
+      <c r="D85" s="115"/>
+      <c r="E85" s="119"/>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
@@ -3202,13 +3139,13 @@
       <c r="K85" s="28"/>
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
-      <c r="N85" s="101"/>
+      <c r="N85" s="109"/>
     </row>
     <row r="86" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A86" s="108"/>
-      <c r="B86" s="109"/>
-      <c r="C86" s="109"/>
-      <c r="D86" s="110"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="118"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -3222,43 +3159,43 @@
     </row>
     <row r="87" spans="1:14" ht="14" customHeight="1"/>
     <row r="88" spans="1:14" ht="40" customHeight="1">
-      <c r="A88" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="90"/>
+      <c r="A88" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="122"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="98"/>
+      <c r="J88" s="98"/>
+      <c r="L88" s="98"/>
+      <c r="M88" s="98"/>
+      <c r="N88" s="98"/>
     </row>
     <row r="89" spans="1:14" ht="18.5" customHeight="1">
-      <c r="F89" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="G89" s="105"/>
-      <c r="H89" s="105"/>
-      <c r="J89" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="L89" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="M89" s="105"/>
-      <c r="N89" s="105"/>
+      <c r="F89" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="G89" s="113"/>
+      <c r="H89" s="113"/>
+      <c r="J89" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="L89" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="M89" s="113"/>
+      <c r="N89" s="113"/>
     </row>
     <row r="90" spans="1:14" ht="14" customHeight="1" thickBot="1"/>
     <row r="91" spans="1:14" ht="40" customHeight="1">
-      <c r="A91" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
+      <c r="A91" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="105"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="105"/>
       <c r="E91" s="84"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -3271,11 +3208,11 @@
       <c r="N91" s="18"/>
     </row>
     <row r="92" spans="1:14" ht="40" customHeight="1">
-      <c r="A92" s="106"/>
-      <c r="B92" s="107"/>
-      <c r="C92" s="107"/>
-      <c r="D92" s="107"/>
-      <c r="E92" s="112"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="115"/>
+      <c r="D92" s="115"/>
+      <c r="E92" s="120"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -3287,11 +3224,11 @@
       <c r="N92" s="51"/>
     </row>
     <row r="93" spans="1:14" ht="40" customHeight="1">
-      <c r="A93" s="106"/>
-      <c r="B93" s="107"/>
-      <c r="C93" s="107"/>
-      <c r="D93" s="107"/>
-      <c r="E93" s="111"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="115"/>
+      <c r="E93" s="119"/>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
@@ -3300,13 +3237,13 @@
       <c r="K93" s="28"/>
       <c r="L93" s="28"/>
       <c r="M93" s="28"/>
-      <c r="N93" s="101"/>
+      <c r="N93" s="109"/>
     </row>
     <row r="94" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A94" s="108"/>
-      <c r="B94" s="109"/>
-      <c r="C94" s="109"/>
-      <c r="D94" s="110"/>
+      <c r="A94" s="116"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="117"/>
+      <c r="D94" s="118"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
@@ -3320,96 +3257,108 @@
     </row>
     <row r="95" spans="1:14" ht="14" customHeight="1"/>
     <row r="96" spans="1:14" ht="40" customHeight="1">
-      <c r="A96" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="B96" s="114"/>
-      <c r="C96" s="114"/>
-      <c r="D96" s="114"/>
-      <c r="F96" s="90"/>
-      <c r="G96" s="90"/>
-      <c r="H96" s="90"/>
-      <c r="J96" s="90"/>
-      <c r="L96" s="90"/>
-      <c r="M96" s="90"/>
-      <c r="N96" s="90"/>
+      <c r="A96" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="122"/>
+      <c r="C96" s="122"/>
+      <c r="D96" s="122"/>
+      <c r="F96" s="98"/>
+      <c r="G96" s="98"/>
+      <c r="H96" s="98"/>
+      <c r="J96" s="98"/>
+      <c r="L96" s="98"/>
+      <c r="M96" s="98"/>
+      <c r="N96" s="98"/>
     </row>
     <row r="97" spans="6:14" ht="15" customHeight="1">
-      <c r="F97" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="J97" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="L97" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="M97" s="105"/>
-      <c r="N97" s="105"/>
+      <c r="F97" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="G97" s="113"/>
+      <c r="H97" s="113"/>
+      <c r="J97" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="L97" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="M97" s="113"/>
+      <c r="N97" s="113"/>
     </row>
     <row r="98" spans="6:14" ht="15" customHeight="1"/>
     <row r="99" spans="6:14" ht="15" customHeight="1"/>
     <row r="100" spans="6:14" ht="15" customHeight="1">
-      <c r="N100" s="94" t="s">
-        <v>69</v>
+      <c r="N100" s="102" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A83:D86"/>
+  <mergeCells count="92">
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="F89:H89"/>
     <mergeCell ref="L89:N89"/>
     <mergeCell ref="A91:D94"/>
     <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A73:D76"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="L97:N97"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="L79:N79"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="F81:H81"/>
     <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A83:D86"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="L71:N71"/>
-    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="A73:D76"/>
     <mergeCell ref="E58:I58"/>
     <mergeCell ref="E60:I60"/>
     <mergeCell ref="K58:N58"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="A63:N63"/>
-    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="C51:I51"/>
     <mergeCell ref="C52:N52"/>
     <mergeCell ref="C53:I53"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="L34:N34"/>
     <mergeCell ref="L35:N35"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G30:N30"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G24:N24"/>
     <mergeCell ref="A13:N13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B16:B18"/>

--- a/DayReportsDataBase/ExportFiles/ReturnProtocol.xlsx
+++ b/DayReportsDataBase/ExportFiles/ReturnProtocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\source\repos\DelitaTrade\DayReportsDataBase\ExportFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549512D2-7CFC-4E68-8716-2158654A1BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AFAB9E-F57C-41FC-896C-0A3760D832CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{68D2A0A9-2297-4A68-B6D0-4C9D918D7251}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>ДПП</t>
   </si>
@@ -57,13 +57,13 @@
     <t xml:space="preserve">Обект: </t>
   </si>
   <si>
-    <t>Болеро - Созопол 2</t>
+    <t>Бързо Хранене</t>
   </si>
   <si>
     <t>Адрес:</t>
   </si>
   <si>
-    <t xml:space="preserve">Созопол Републиканска 81 </t>
+    <t xml:space="preserve">Кюстендил   </t>
   </si>
   <si>
     <t>Върнал стоката:                         (шофьор)</t>
@@ -78,7 +78,7 @@
     <t>Одобрил протокола: (търговски представител)</t>
   </si>
   <si>
-    <t>Call center</t>
+    <t>Атанас Колев</t>
   </si>
   <si>
     <t>НАЧИН НА ПЛАЩАНЕ - КЛИЕНТ:</t>
@@ -163,34 +163,13 @@
     <t>ДРУГО - ПОДРОБНО ОПИСАНИЕ:</t>
   </si>
   <si>
-    <t>(140101)Паста прясна / Тортелони с прошуто крудо, 250 гр</t>
-  </si>
-  <si>
-    <t>6 бр.</t>
-  </si>
-  <si>
-    <t>L:35094</t>
-  </si>
-  <si>
-    <t>Клиента не хареса продукта</t>
-  </si>
-  <si>
-    <t>(140102)Паста прясна / Тортелони с рикота и спанак, 250 гр</t>
+    <t>(110348)Сос "Голдън барбекю" 2 кг</t>
   </si>
   <si>
     <t>3 бр.</t>
   </si>
   <si>
-    <t>L:35093</t>
-  </si>
-  <si>
-    <t>(140103)Паста прясна / Тортелони със сирена, 250 гр</t>
-  </si>
-  <si>
-    <t>(060404)Сирене - Грана Падано - ЛЮСПИ - Агриформ, 100 гр</t>
-  </si>
-  <si>
-    <t>L:G2L25172</t>
+    <t>L:120525</t>
   </si>
   <si>
     <t>Приел СКЛАД:</t>
@@ -906,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1061,15 +1040,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1106,9 +1085,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1128,29 +1105,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1259,7 +1214,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0D2799-2A88-4A46-A5EB-CAF80316CEED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD31A6A-537E-4F01-6BEB-55B56EBEB679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,6 +1250,156 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE127616-9907-C683-46CD-2F344D7B71C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="6242050"/>
+          <a:ext cx="10464800" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E903881-724B-978F-8217-6EBAF426FF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="7753350"/>
+          <a:ext cx="10464800" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDBEBA2-C853-6C90-FFA6-4F96574E7BBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="9264650"/>
+          <a:ext cx="10464800" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
@@ -1306,10 +1411,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7E47DC-F3EA-7825-6AAA-2B195D2DBC76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA5C28C-804B-0742-F7AE-BF0DCF1BF851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,10 +1461,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EC3D3D-07C4-2581-C9F1-85B46E9C8780}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC6D542-70A6-1A30-25DC-6AAE183C4ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <v>45819</v>
+        <v>45824</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1901,9 +2006,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="42" t="s">
-        <v>19</v>
-      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="36" t="s">
         <v>15</v>
       </c>
@@ -1911,7 +2014,9 @@
       <c r="H10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="J10" s="38" t="s">
         <v>17</v>
       </c>
@@ -1985,7 +2090,7 @@
       </c>
       <c r="H14" s="75"/>
       <c r="I14" s="77">
-        <v>45931</v>
+        <v>45909</v>
       </c>
       <c r="J14" s="78"/>
       <c r="K14" s="29"/>
@@ -2018,22 +2123,22 @@
       <c r="B16" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="64" t="s">
+      <c r="C16" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="64" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="65" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="12"/>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="65" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="65" t="s">
         <v>32</v>
       </c>
       <c r="K16" s="12"/>
@@ -2047,19 +2152,19 @@
       <c r="A17" s="54"/>
       <c r="B17" s="56"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="66" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="31"/>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="66" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="31"/>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="66" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="31"/>
@@ -2072,17 +2177,13 @@
     <row r="18" spans="1:14" ht="24.5" customHeight="1" thickBot="1">
       <c r="A18" s="54"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="79" t="s">
-        <v>19</v>
-      </c>
+      <c r="C18" s="79"/>
       <c r="D18" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
-      <c r="G18" s="82" t="s">
-        <v>43</v>
-      </c>
+      <c r="G18" s="82"/>
       <c r="H18" s="82"/>
       <c r="I18" s="82"/>
       <c r="J18" s="82"/>
@@ -2111,29 +2212,21 @@
       <c r="A20" s="85">
         <v>2</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="94">
-        <v>45930</v>
-      </c>
-      <c r="J20" s="95"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="5"/>
       <c r="L20" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="87"/>
-      <c r="N20" s="88" t="s">
+      <c r="M20" s="79"/>
+      <c r="N20" s="87" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2159,21 +2252,19 @@
         <v>26</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="64" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="65" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="65" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="65" t="s">
         <v>32</v>
       </c>
       <c r="K22" s="12"/>
@@ -2187,19 +2278,19 @@
       <c r="A23" s="54"/>
       <c r="B23" s="56"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="66" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G23" s="31"/>
-      <c r="H23" s="65" t="s">
+      <c r="H23" s="66" t="s">
         <v>36</v>
       </c>
       <c r="I23" s="31"/>
-      <c r="J23" s="65" t="s">
+      <c r="J23" s="66" t="s">
         <v>37</v>
       </c>
       <c r="K23" s="31"/>
@@ -2212,24 +2303,20 @@
     <row r="24" spans="1:14" ht="24.5" customHeight="1" thickBot="1">
       <c r="A24" s="54"/>
       <c r="B24" s="56"/>
-      <c r="C24" s="79" t="s">
-        <v>19</v>
-      </c>
+      <c r="C24" s="79"/>
       <c r="D24" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
-      <c r="G24" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="83"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" ht="7.5" customHeight="1" thickBot="1">
       <c r="A25" s="84"/>
@@ -2251,29 +2338,21 @@
       <c r="A26" s="85">
         <v>3</v>
       </c>
-      <c r="B26" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="92"/>
-      <c r="I26" s="94">
-        <v>45930</v>
-      </c>
-      <c r="J26" s="95"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="5"/>
       <c r="L26" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="87"/>
-      <c r="N26" s="88" t="s">
+      <c r="M26" s="79"/>
+      <c r="N26" s="87" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2299,21 +2378,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="64" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="65" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="12"/>
-      <c r="H28" s="64" t="s">
+      <c r="H28" s="65" t="s">
         <v>31</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="65" t="s">
         <v>32</v>
       </c>
       <c r="K28" s="12"/>
@@ -2327,19 +2404,19 @@
       <c r="A29" s="54"/>
       <c r="B29" s="56"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="66" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="31"/>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G29" s="31"/>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="66" t="s">
         <v>36</v>
       </c>
       <c r="I29" s="31"/>
-      <c r="J29" s="65" t="s">
+      <c r="J29" s="66" t="s">
         <v>37</v>
       </c>
       <c r="K29" s="31"/>
@@ -2352,24 +2429,20 @@
     <row r="30" spans="1:14" ht="24.5" customHeight="1" thickBot="1">
       <c r="A30" s="54"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="79" t="s">
-        <v>19</v>
-      </c>
+      <c r="C30" s="79"/>
       <c r="D30" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="81"/>
       <c r="F30" s="81"/>
-      <c r="G30" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="83"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" ht="7.5" customHeight="1" thickBot="1">
       <c r="A31" s="84"/>
@@ -2391,29 +2464,21 @@
       <c r="A32" s="85">
         <v>4</v>
       </c>
-      <c r="B32" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="92"/>
-      <c r="I32" s="94">
-        <v>45850</v>
-      </c>
-      <c r="J32" s="95"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="5"/>
       <c r="L32" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="87"/>
-      <c r="N32" s="88" t="s">
+      <c r="M32" s="79"/>
+      <c r="N32" s="87" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2439,21 +2504,19 @@
         <v>26</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="65" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="65" t="s">
         <v>30</v>
       </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="64" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="65" t="s">
         <v>32</v>
       </c>
       <c r="K34" s="12"/>
@@ -2467,19 +2530,19 @@
       <c r="A35" s="54"/>
       <c r="B35" s="56"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="66" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="31"/>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="31"/>
-      <c r="H35" s="65" t="s">
+      <c r="H35" s="66" t="s">
         <v>36</v>
       </c>
       <c r="I35" s="31"/>
-      <c r="J35" s="65" t="s">
+      <c r="J35" s="66" t="s">
         <v>37</v>
       </c>
       <c r="K35" s="31"/>
@@ -2492,20 +2555,20 @@
     <row r="36" spans="1:14" ht="24.5" customHeight="1" thickBot="1">
       <c r="A36" s="54"/>
       <c r="B36" s="56"/>
-      <c r="C36" s="87"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="81"/>
       <c r="F36" s="81"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="83"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" ht="7.5" customHeight="1" thickBot="1">
       <c r="A37" s="84"/>
@@ -2531,17 +2594,17 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
       <c r="H38" s="30"/>
-      <c r="I38" s="96"/>
+      <c r="I38" s="88"/>
       <c r="J38" s="32"/>
       <c r="K38" s="5"/>
       <c r="L38" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="87"/>
-      <c r="N38" s="88" t="s">
+      <c r="M38" s="79"/>
+      <c r="N38" s="87" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2567,19 +2630,19 @@
         <v>26</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="65" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="64" t="s">
+      <c r="F40" s="65" t="s">
         <v>30</v>
       </c>
       <c r="G40" s="12"/>
-      <c r="H40" s="64" t="s">
+      <c r="H40" s="65" t="s">
         <v>31</v>
       </c>
       <c r="I40" s="12"/>
-      <c r="J40" s="64" t="s">
+      <c r="J40" s="65" t="s">
         <v>32</v>
       </c>
       <c r="K40" s="12"/>
@@ -2593,19 +2656,19 @@
       <c r="A41" s="54"/>
       <c r="B41" s="56"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="66" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="65" t="s">
+      <c r="F41" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G41" s="31"/>
-      <c r="H41" s="65" t="s">
+      <c r="H41" s="66" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="31"/>
-      <c r="J41" s="65" t="s">
+      <c r="J41" s="66" t="s">
         <v>37</v>
       </c>
       <c r="K41" s="31"/>
@@ -2635,130 +2698,130 @@
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1"/>
     <row r="44" spans="1:14" ht="25.5" customHeight="1">
-      <c r="C44" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
+      <c r="C44" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
       <c r="J44" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
+        <v>44</v>
+      </c>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1"/>
     <row r="46" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A46" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
+      <c r="A46" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
       <c r="J46" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
+        <v>44</v>
+      </c>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1"/>
     <row r="48" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A48" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
+      <c r="A48" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
       <c r="J48" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
+        <v>44</v>
+      </c>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1"/>
     <row r="50" spans="1:14" ht="24.5" customHeight="1">
-      <c r="C50" s="99" t="s">
-        <v>54</v>
+      <c r="C50" s="91" t="s">
+        <v>47</v>
       </c>
       <c r="J50" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1">
-      <c r="C51" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
+      <c r="C51" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
     </row>
     <row r="52" spans="1:14" ht="15.5" customHeight="1">
-      <c r="C52" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100"/>
+      <c r="C52" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="92"/>
     </row>
     <row r="53" spans="1:14" ht="15.5" customHeight="1">
-      <c r="C53" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
+      <c r="C53" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
     </row>
     <row r="54" spans="1:14" ht="13" customHeight="1"/>
     <row r="55" spans="1:14" ht="15.5" customHeight="1">
-      <c r="B55" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
-      <c r="N55" s="102" t="s">
-        <v>59</v>
+      <c r="B55" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="93"/>
+      <c r="N55" s="94" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="13" customHeight="1"/>
@@ -2817,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="K60" s="1">
-        <v>45819</v>
+        <v>45824</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -2841,31 +2904,31 @@
     </row>
     <row r="62" spans="1:14" ht="11" customHeight="1"/>
     <row r="63" spans="1:14" ht="40" customHeight="1">
-      <c r="A63" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
-      <c r="L63" s="103"/>
-      <c r="M63" s="103"/>
-      <c r="N63" s="103"/>
+      <c r="A63" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="95"/>
     </row>
     <row r="64" spans="1:14" ht="14" customHeight="1" thickBot="1"/>
     <row r="65" spans="1:14" ht="40" customHeight="1">
-      <c r="A65" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
+      <c r="A65" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
       <c r="E65" s="12"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -2880,10 +2943,10 @@
     <row r="66" spans="1:14" ht="40" customHeight="1">
       <c r="A66" s="50"/>
       <c r="B66" s="29"/>
-      <c r="C66" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="107"/>
+      <c r="C66" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="99"/>
       <c r="E66" s="50"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
@@ -2896,13 +2959,13 @@
       <c r="N66" s="51"/>
     </row>
     <row r="67" spans="1:14" ht="40" customHeight="1">
-      <c r="A67" s="106"/>
+      <c r="A67" s="98"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="107"/>
-      <c r="E67" s="106"/>
+      <c r="C67" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="99"/>
+      <c r="E67" s="98"/>
       <c r="F67" s="28"/>
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
@@ -2911,15 +2974,15 @@
       <c r="K67" s="28"/>
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="109"/>
+      <c r="N67" s="101"/>
     </row>
     <row r="68" spans="1:14" ht="40" customHeight="1" thickBot="1">
       <c r="A68" s="14"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="111"/>
+      <c r="C68" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="103"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -2934,42 +2997,42 @@
     <row r="69" spans="1:14" ht="14" customHeight="1"/>
     <row r="70" spans="1:14" ht="40" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
-      <c r="F70" s="98"/>
-      <c r="H70" s="98"/>
-      <c r="J70" s="98"/>
-      <c r="L70" s="98"/>
-      <c r="M70" s="98"/>
-      <c r="N70" s="98"/>
+      <c r="F70" s="90"/>
+      <c r="H70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="L70" s="90"/>
+      <c r="M70" s="90"/>
+      <c r="N70" s="90"/>
     </row>
     <row r="71" spans="1:14" ht="18.5" customHeight="1">
-      <c r="F71" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="J71" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="L71" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="M71" s="113"/>
-      <c r="N71" s="113"/>
+      <c r="F71" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="L71" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="M71" s="105"/>
+      <c r="N71" s="105"/>
     </row>
     <row r="72" spans="1:14" ht="15.5" customHeight="1" thickBot="1"/>
     <row r="73" spans="1:14" ht="40" customHeight="1">
-      <c r="A73" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="105"/>
-      <c r="C73" s="105"/>
-      <c r="D73" s="105"/>
+      <c r="A73" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="97"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
       <c r="E73" s="84"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -2982,11 +3045,11 @@
       <c r="N73" s="18"/>
     </row>
     <row r="74" spans="1:14" ht="40" customHeight="1">
-      <c r="A74" s="114"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="120"/>
+      <c r="A74" s="106"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="112"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
@@ -2998,11 +3061,11 @@
       <c r="N74" s="51"/>
     </row>
     <row r="75" spans="1:14" ht="40" customHeight="1">
-      <c r="A75" s="114"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="119"/>
+      <c r="A75" s="106"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="111"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
@@ -3011,13 +3074,13 @@
       <c r="K75" s="28"/>
       <c r="L75" s="28"/>
       <c r="M75" s="28"/>
-      <c r="N75" s="109"/>
+      <c r="N75" s="101"/>
     </row>
     <row r="76" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A76" s="116"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="117"/>
-      <c r="D76" s="118"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="110"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -3032,72 +3095,72 @@
     <row r="77" spans="1:14" ht="14" customHeight="1"/>
     <row r="78" spans="1:14" ht="40" customHeight="1">
       <c r="A78" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
-      <c r="F78" s="98"/>
-      <c r="H78" s="98"/>
-      <c r="J78" s="98"/>
-      <c r="L78" s="98"/>
-      <c r="M78" s="98"/>
-      <c r="N78" s="98"/>
+      <c r="F78" s="90"/>
+      <c r="H78" s="90"/>
+      <c r="J78" s="90"/>
+      <c r="L78" s="90"/>
+      <c r="M78" s="90"/>
+      <c r="N78" s="90"/>
     </row>
     <row r="79" spans="1:14" ht="18.5" customHeight="1">
-      <c r="F79" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="H79" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="J79" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="L79" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="M79" s="113"/>
-      <c r="N79" s="113"/>
+      <c r="F79" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="H79" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="J79" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="L79" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="M79" s="105"/>
+      <c r="N79" s="105"/>
     </row>
     <row r="80" spans="1:14" ht="40" customHeight="1">
-      <c r="A80" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="B80" s="121"/>
-      <c r="C80" s="121"/>
-      <c r="D80" s="121"/>
-      <c r="F80" s="98"/>
-      <c r="G80" s="98"/>
-      <c r="H80" s="98"/>
-      <c r="J80" s="98"/>
-      <c r="L80" s="98"/>
-      <c r="M80" s="98"/>
-      <c r="N80" s="98"/>
+      <c r="A80" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="113"/>
+      <c r="C80" s="113"/>
+      <c r="D80" s="113"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="90"/>
+      <c r="J80" s="90"/>
+      <c r="L80" s="90"/>
+      <c r="M80" s="90"/>
+      <c r="N80" s="90"/>
     </row>
     <row r="81" spans="1:14" ht="18.5" customHeight="1">
-      <c r="F81" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="G81" s="113"/>
-      <c r="H81" s="113"/>
-      <c r="J81" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="L81" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="M81" s="113"/>
-      <c r="N81" s="113"/>
+      <c r="F81" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="J81" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="L81" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="M81" s="105"/>
+      <c r="N81" s="105"/>
     </row>
     <row r="82" spans="1:14" ht="14" customHeight="1" thickBot="1"/>
     <row r="83" spans="1:14" ht="40" customHeight="1">
-      <c r="A83" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
+      <c r="A83" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="97"/>
       <c r="E83" s="84"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -3110,11 +3173,11 @@
       <c r="N83" s="18"/>
     </row>
     <row r="84" spans="1:14" ht="40" customHeight="1">
-      <c r="A84" s="114"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="120"/>
+      <c r="A84" s="106"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="112"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
@@ -3126,11 +3189,11 @@
       <c r="N84" s="51"/>
     </row>
     <row r="85" spans="1:14" ht="40" customHeight="1">
-      <c r="A85" s="114"/>
-      <c r="B85" s="115"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115"/>
-      <c r="E85" s="119"/>
+      <c r="A85" s="106"/>
+      <c r="B85" s="107"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="107"/>
+      <c r="E85" s="111"/>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
@@ -3139,13 +3202,13 @@
       <c r="K85" s="28"/>
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
-      <c r="N85" s="109"/>
+      <c r="N85" s="101"/>
     </row>
     <row r="86" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A86" s="116"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="118"/>
+      <c r="A86" s="108"/>
+      <c r="B86" s="109"/>
+      <c r="C86" s="109"/>
+      <c r="D86" s="110"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -3159,43 +3222,43 @@
     </row>
     <row r="87" spans="1:14" ht="14" customHeight="1"/>
     <row r="88" spans="1:14" ht="40" customHeight="1">
-      <c r="A88" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="122"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="122"/>
-      <c r="F88" s="98"/>
-      <c r="G88" s="98"/>
-      <c r="H88" s="98"/>
-      <c r="J88" s="98"/>
-      <c r="L88" s="98"/>
-      <c r="M88" s="98"/>
-      <c r="N88" s="98"/>
+      <c r="A88" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="F88" s="90"/>
+      <c r="G88" s="90"/>
+      <c r="H88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="L88" s="90"/>
+      <c r="M88" s="90"/>
+      <c r="N88" s="90"/>
     </row>
     <row r="89" spans="1:14" ht="18.5" customHeight="1">
-      <c r="F89" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="G89" s="113"/>
-      <c r="H89" s="113"/>
-      <c r="J89" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="L89" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="M89" s="113"/>
-      <c r="N89" s="113"/>
+      <c r="F89" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="105"/>
+      <c r="H89" s="105"/>
+      <c r="J89" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="L89" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="M89" s="105"/>
+      <c r="N89" s="105"/>
     </row>
     <row r="90" spans="1:14" ht="14" customHeight="1" thickBot="1"/>
     <row r="91" spans="1:14" ht="40" customHeight="1">
-      <c r="A91" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="B91" s="105"/>
-      <c r="C91" s="105"/>
-      <c r="D91" s="105"/>
+      <c r="A91" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="97"/>
+      <c r="C91" s="97"/>
+      <c r="D91" s="97"/>
       <c r="E91" s="84"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -3208,11 +3271,11 @@
       <c r="N91" s="18"/>
     </row>
     <row r="92" spans="1:14" ht="40" customHeight="1">
-      <c r="A92" s="114"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="115"/>
-      <c r="D92" s="115"/>
-      <c r="E92" s="120"/>
+      <c r="A92" s="106"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="112"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -3224,11 +3287,11 @@
       <c r="N92" s="51"/>
     </row>
     <row r="93" spans="1:14" ht="40" customHeight="1">
-      <c r="A93" s="114"/>
-      <c r="B93" s="115"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="115"/>
-      <c r="E93" s="119"/>
+      <c r="A93" s="106"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="107"/>
+      <c r="D93" s="107"/>
+      <c r="E93" s="111"/>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
@@ -3237,13 +3300,13 @@
       <c r="K93" s="28"/>
       <c r="L93" s="28"/>
       <c r="M93" s="28"/>
-      <c r="N93" s="109"/>
+      <c r="N93" s="101"/>
     </row>
     <row r="94" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A94" s="116"/>
-      <c r="B94" s="117"/>
-      <c r="C94" s="117"/>
-      <c r="D94" s="118"/>
+      <c r="A94" s="108"/>
+      <c r="B94" s="109"/>
+      <c r="C94" s="109"/>
+      <c r="D94" s="110"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
@@ -3257,108 +3320,96 @@
     </row>
     <row r="95" spans="1:14" ht="14" customHeight="1"/>
     <row r="96" spans="1:14" ht="40" customHeight="1">
-      <c r="A96" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="B96" s="122"/>
-      <c r="C96" s="122"/>
-      <c r="D96" s="122"/>
-      <c r="F96" s="98"/>
-      <c r="G96" s="98"/>
-      <c r="H96" s="98"/>
-      <c r="J96" s="98"/>
-      <c r="L96" s="98"/>
-      <c r="M96" s="98"/>
-      <c r="N96" s="98"/>
+      <c r="A96" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="114"/>
+      <c r="C96" s="114"/>
+      <c r="D96" s="114"/>
+      <c r="F96" s="90"/>
+      <c r="G96" s="90"/>
+      <c r="H96" s="90"/>
+      <c r="J96" s="90"/>
+      <c r="L96" s="90"/>
+      <c r="M96" s="90"/>
+      <c r="N96" s="90"/>
     </row>
     <row r="97" spans="6:14" ht="15" customHeight="1">
-      <c r="F97" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="G97" s="113"/>
-      <c r="H97" s="113"/>
-      <c r="J97" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="L97" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="M97" s="113"/>
-      <c r="N97" s="113"/>
+      <c r="F97" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="J97" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="L97" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="M97" s="105"/>
+      <c r="N97" s="105"/>
     </row>
     <row r="98" spans="6:14" ht="15" customHeight="1"/>
     <row r="99" spans="6:14" ht="15" customHeight="1"/>
     <row r="100" spans="6:14" ht="15" customHeight="1">
-      <c r="N100" s="102" t="s">
-        <v>76</v>
+      <c r="N100" s="94" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="80">
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A83:D86"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="F89:H89"/>
     <mergeCell ref="L89:N89"/>
     <mergeCell ref="A91:D94"/>
     <mergeCell ref="A96:D96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A73:D76"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="L79:N79"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="F81:H81"/>
     <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A83:D86"/>
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A73:D76"/>
+    <mergeCell ref="B55:L55"/>
     <mergeCell ref="E58:I58"/>
     <mergeCell ref="E60:I60"/>
     <mergeCell ref="K58:N58"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="A63:N63"/>
-    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="C51:I51"/>
     <mergeCell ref="C52:N52"/>
     <mergeCell ref="C53:I53"/>
-    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="L40:N40"/>
     <mergeCell ref="L41:N41"/>
     <mergeCell ref="D42:F42"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G24:N24"/>
     <mergeCell ref="A13:N13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B16:B18"/>
